--- a/analysis_draft2017b/csv/tS01.xlsx
+++ b/analysis_draft2017b/csv/tS01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>Sulfate aerosol</t>
   </si>
@@ -82,31 +82,31 @@
     <t>Lifetime, days</t>
   </si>
   <si>
-    <t>+210.87 ± 0.26</t>
+    <t>+211.03 ± 0.29</t>
   </si>
   <si>
     <t>+0.00 ± 0.00</t>
   </si>
   <si>
-    <t>+4.72 ± 0.02</t>
-  </si>
-  <si>
-    <t>+5.13 ± 0.01</t>
-  </si>
-  <si>
-    <t>+201.01 ± 0.26</t>
-  </si>
-  <si>
-    <t>-210.96 ± 0.26</t>
-  </si>
-  <si>
-    <t>-149.33 ± 0.23</t>
-  </si>
-  <si>
-    <t>-10.58 ± 0.03</t>
-  </si>
-  <si>
-    <t>-49.01 ± 0.02</t>
+    <t>+4.57 ± 0.02</t>
+  </si>
+  <si>
+    <t>+5.24 ± 0.01</t>
+  </si>
+  <si>
+    <t>+201.22 ± 0.29</t>
+  </si>
+  <si>
+    <t>-211.13 ± 0.29</t>
+  </si>
+  <si>
+    <t>-149.54 ± 0.27</t>
+  </si>
+  <si>
+    <t>-10.57 ± 0.02</t>
+  </si>
+  <si>
+    <t>-48.98 ± 0.02</t>
   </si>
   <si>
     <t>-2.04 ± 0.00</t>
@@ -130,103 +130,97 @@
     <t>+0.18 ± 0.00</t>
   </si>
   <si>
+    <t>+0.07 ± 0.00</t>
+  </si>
+  <si>
+    <t>-0.07 ± 0.00</t>
+  </si>
+  <si>
+    <t>+0.09 ± 0.00</t>
+  </si>
+  <si>
+    <t>+204.50 ± 0.29</t>
+  </si>
+  <si>
+    <t>+3.21 ± 0.01</t>
+  </si>
+  <si>
+    <t>-204.57 ± 0.29</t>
+  </si>
+  <si>
+    <t>-0.28 ± 0.00</t>
+  </si>
+  <si>
+    <t>-146.04 ± 0.27</t>
+  </si>
+  <si>
+    <t>-10.32 ± 0.02</t>
+  </si>
+  <si>
+    <t>-46.04 ± 0.02</t>
+  </si>
+  <si>
+    <t>-1.89 ± 0.00</t>
+  </si>
+  <si>
+    <t>+0.40 ± 0.00</t>
+  </si>
+  <si>
+    <t>+0.72 ± 0.00</t>
+  </si>
+  <si>
+    <t>+6.26 ± 0.02</t>
+  </si>
+  <si>
+    <t>+0.97 ± 0.01</t>
+  </si>
+  <si>
+    <t>+5.09 ± 0.01</t>
+  </si>
+  <si>
+    <t>+0.20 ± 0.00</t>
+  </si>
+  <si>
+    <t>-6.29 ± 0.02</t>
+  </si>
+  <si>
+    <t>-3.26 ± 0.01</t>
+  </si>
+  <si>
+    <t>-0.24 ± 0.00</t>
+  </si>
+  <si>
+    <t>-2.67 ± 0.01</t>
+  </si>
+  <si>
+    <t>-0.12 ± 0.00</t>
+  </si>
+  <si>
+    <t>+0.11 ± 0.00</t>
+  </si>
+  <si>
+    <t>+6.28 ± 0.05</t>
+  </si>
+  <si>
+    <t>+0.56 ± 0.01</t>
+  </si>
+  <si>
+    <t>+0.32 ± 0.01</t>
+  </si>
+  <si>
+    <t>+0.15 ± 0.00</t>
+  </si>
+  <si>
     <t>+0.08 ± 0.00</t>
   </si>
   <si>
-    <t>+0.07 ± 0.00</t>
-  </si>
-  <si>
-    <t>-0.08 ± 0.00</t>
-  </si>
-  <si>
-    <t>+0.10 ± 0.00</t>
-  </si>
-  <si>
-    <t>+204.45 ± 0.26</t>
-  </si>
-  <si>
-    <t>+3.36 ± 0.01</t>
-  </si>
-  <si>
-    <t>-204.52 ± 0.26</t>
-  </si>
-  <si>
-    <t>-0.28 ± 0.00</t>
-  </si>
-  <si>
-    <t>-145.91 ± 0.22</t>
-  </si>
-  <si>
-    <t>-10.33 ± 0.03</t>
-  </si>
-  <si>
-    <t>-46.11 ± 0.02</t>
-  </si>
-  <si>
-    <t>-1.90 ± 0.00</t>
-  </si>
-  <si>
-    <t>+0.40 ± 0.00</t>
-  </si>
-  <si>
-    <t>+0.72 ± 0.00</t>
-  </si>
-  <si>
-    <t>+6.19 ± 0.01</t>
-  </si>
-  <si>
-    <t>+0.98 ± 0.01</t>
-  </si>
-  <si>
-    <t>+5.00 ± 0.01</t>
-  </si>
-  <si>
-    <t>+0.20 ± 0.00</t>
-  </si>
-  <si>
-    <t>-6.21 ± 0.01</t>
-  </si>
-  <si>
-    <t>-3.21 ± 0.01</t>
-  </si>
-  <si>
-    <t>-0.23 ± 0.00</t>
-  </si>
-  <si>
-    <t>-2.65 ± 0.01</t>
-  </si>
-  <si>
-    <t>-0.12 ± 0.00</t>
-  </si>
-  <si>
-    <t>+0.11 ± 0.00</t>
-  </si>
-  <si>
-    <t>+6.26 ± 0.04</t>
-  </si>
-  <si>
-    <t>+0.50 ± 0.01</t>
-  </si>
-  <si>
-    <t>+0.29 ± 0.00</t>
-  </si>
-  <si>
-    <t>+0.13 ± 0.00</t>
-  </si>
-  <si>
-    <t>-0.50 ± 0.01</t>
-  </si>
-  <si>
-    <t>-0.21 ± 0.00</t>
-  </si>
-  <si>
-    <t>-0.26 ± 0.00</t>
+    <t>-0.56 ± 0.01</t>
   </si>
   <si>
     <t>-0.02 ± 0.00</t>
   </si>
   <si>
-    <t>+5.83 ± 0.14</t>
+    <t>+5.78 ± 0.15</t>
   </si>
 </sst>
 </file>
@@ -624,13 +618,13 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -655,16 +649,16 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -675,10 +669,10 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -703,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -731,13 +725,13 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
@@ -751,7 +745,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -765,7 +759,7 @@
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -782,13 +776,13 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -805,10 +799,10 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -828,13 +822,13 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -851,13 +845,13 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -874,10 +868,10 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -894,16 +888,16 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
